--- a/config_11.17/banner_style_ui.xlsx
+++ b/config_11.17/banner_style_ui.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -813,10 +813,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_029_hlqjd_hammer</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -888,6 +884,10 @@
   </si>
   <si>
     <t>cpl_notcjj</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_042_hlqjd_hammer</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1556,9 +1556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2871,7 +2871,7 @@
         <v>3</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>85</v>
@@ -3524,7 +3524,7 @@
         <v>125</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>124</v>
@@ -3620,7 +3620,7 @@
         <v>134</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J68" s="9" t="s">
         <v>135</v>
@@ -3947,36 +3947,36 @@
         <v>1600099199</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79">
+    <row r="79" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="23">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="23">
         <v>78</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="23">
         <v>1</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="23">
         <v>100</v>
       </c>
-      <c r="G79" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="H79" s="22" t="s">
+      <c r="G79" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="H79" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="J79" s="9" t="s">
+      <c r="J79" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="K79">
-        <v>1602547200</v>
-      </c>
-      <c r="L79">
-        <v>1603123199</v>
+      <c r="K79" s="23">
+        <v>1605571200</v>
+      </c>
+      <c r="L79" s="23">
+        <v>1606147199</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3987,7 +3987,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3996,10 +3996,10 @@
         <v>100</v>
       </c>
       <c r="G80" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J80" s="9" t="s">
         <v>111</v>
@@ -4019,7 +4019,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4028,10 +4028,10 @@
         <v>100</v>
       </c>
       <c r="G81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H81" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>111</v>
@@ -4051,7 +4051,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E82" s="32">
         <v>1</v>
@@ -4060,10 +4060,10 @@
         <v>100</v>
       </c>
       <c r="G82" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H82" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J82" s="34" t="s">
         <v>111</v>
@@ -4083,7 +4083,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E83" s="3">
         <v>1</v>
@@ -4112,7 +4112,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E84" s="35">
         <v>1</v>
@@ -4121,10 +4121,10 @@
         <v>100</v>
       </c>
       <c r="G84" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H84" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J84" s="35" t="s">
         <v>22</v>
@@ -4144,7 +4144,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4153,10 +4153,10 @@
         <v>100</v>
       </c>
       <c r="G85" t="s">
+        <v>185</v>
+      </c>
+      <c r="H85" s="30" t="s">
         <v>186</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>187</v>
       </c>
       <c r="J85" s="35" t="s">
         <v>22</v>
@@ -4176,6 +4176,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="5" master=""/>
   <rangeList sheetStid="6" master=""/>
@@ -4183,31 +4191,13 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4224,44 +4214,54 @@
 </comments>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_11.17/banner_style_ui.xlsx
+++ b/config_11.17/banner_style_ui.xlsx
@@ -887,7 +887,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_042_hlqjd_hammer</t>
+    <t>actp_own_task_p_029_hlqjd_hammer</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1556,9 +1556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4176,28 +4176,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4214,54 +4208,60 @@
 </comments>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>